--- a/data/output/best_policy_DEP_2.xlsx
+++ b/data/output/best_policy_DEP_2.xlsx
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="C3">
         <v>0.9999999999999999</v>
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
         <v>0.9999999999999999</v>
@@ -503,10 +503,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D5">
         <v>0.9999999999999999</v>
@@ -535,13 +535,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E6">
         <v>0.9999999999999999</v>
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F7">
         <v>0.9999999999999999</v>
@@ -682,31 +682,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1654.960429446398</v>
+        <v>1694.160680261987</v>
       </c>
       <c r="D3">
-        <v>2301.839455741629</v>
+        <v>2326.735385860782</v>
       </c>
       <c r="E3">
-        <v>2641.988174501852</v>
+        <v>2656.853972649786</v>
       </c>
       <c r="F3">
-        <v>2818.030863943628</v>
+        <v>2826.447220279086</v>
       </c>
       <c r="G3">
-        <v>2908.058450497841</v>
+        <v>2912.736845142961</v>
       </c>
       <c r="H3">
-        <v>2953.696310600939</v>
+        <v>2956.259482470446</v>
       </c>
       <c r="I3">
-        <v>2976.655639428987</v>
+        <v>2978.045074018677</v>
       </c>
       <c r="J3">
-        <v>2988.131099053471</v>
+        <v>2988.87736020182</v>
       </c>
       <c r="K3">
-        <v>2993.832047721004</v>
+        <v>2994.230458916441</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2472.256339149562</v>
+        <v>2340.145283452736</v>
       </c>
       <c r="D4">
-        <v>3710.936446107633</v>
+        <v>3666.968114027487</v>
       </c>
       <c r="E4">
-        <v>4587.174008562894</v>
+        <v>4579.803638622825</v>
       </c>
       <c r="F4">
-        <v>5159.085113037614</v>
+        <v>5163.80356426865</v>
       </c>
       <c r="G4">
-        <v>5512.923641675319</v>
+        <v>5520.195044108455</v>
       </c>
       <c r="H4">
-        <v>5723.739553786215</v>
+        <v>5730.157232655461</v>
       </c>
       <c r="I4">
-        <v>5845.762034969067</v>
+        <v>5850.516338071203</v>
       </c>
       <c r="J4">
-        <v>5914.793993864105</v>
+        <v>5918.00972172866</v>
       </c>
       <c r="K4">
-        <v>5953.109017288497</v>
+        <v>5955.165683246522</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2875.136369514481</v>
+        <v>2606.082809355423</v>
       </c>
       <c r="D5">
-        <v>4469.511412216016</v>
+        <v>4305.283701366729</v>
       </c>
       <c r="E5">
-        <v>5813.118643269719</v>
+        <v>5728.152115394805</v>
       </c>
       <c r="F5">
-        <v>6853.471874051474</v>
+        <v>6816.355145319163</v>
       </c>
       <c r="G5">
-        <v>7605.823714449876</v>
+        <v>7594.457336306838</v>
       </c>
       <c r="H5">
-        <v>8121.663515217905</v>
+        <v>8122.187376043384</v>
       </c>
       <c r="I5">
-        <v>8460.502256353895</v>
+        <v>8465.345860566817</v>
       </c>
       <c r="J5">
-        <v>8675.457862798508</v>
+        <v>8680.962764517844</v>
       </c>
       <c r="K5">
-        <v>8807.889530123783</v>
+        <v>8812.602084170954</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -787,31 +787,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3053.522038272524</v>
+        <v>2695.436218527841</v>
       </c>
       <c r="D6">
-        <v>4881.031346891035</v>
+        <v>4599.404301907441</v>
       </c>
       <c r="E6">
-        <v>6518.204938217917</v>
+        <v>6327.995443284841</v>
       </c>
       <c r="F6">
-        <v>7945.122433069007</v>
+        <v>7828.915898758506</v>
       </c>
       <c r="G6">
-        <v>9110.368270957068</v>
+        <v>9047.668827738944</v>
       </c>
       <c r="H6">
-        <v>10009.0386727535</v>
+        <v>9980.624488598767</v>
       </c>
       <c r="I6">
-        <v>10668.66127744957</v>
+        <v>10659.85129887129</v>
       </c>
       <c r="J6">
-        <v>11132.85324949999</v>
+        <v>11133.78537725516</v>
       </c>
       <c r="K6">
-        <v>11447.844457508</v>
+        <v>11452.65328629685</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -822,31 +822,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3111.00161714132</v>
+        <v>2716.981096800135</v>
       </c>
       <c r="D7">
-        <v>5133.526680470314</v>
+        <v>4733.084937484687</v>
       </c>
       <c r="E7">
-        <v>6930.28163635647</v>
+        <v>6640.358623903503</v>
       </c>
       <c r="F7">
-        <v>8604.755407083025</v>
+        <v>8394.39184043113</v>
       </c>
       <c r="G7">
-        <v>10098.69727748469</v>
+        <v>9958.992558722575</v>
       </c>
       <c r="H7">
-        <v>11364.05205985792</v>
+        <v>11280.07653454148</v>
       </c>
       <c r="I7">
-        <v>12384.25404807373</v>
+        <v>12339.91857308237</v>
       </c>
       <c r="J7">
-        <v>13170.88998269588</v>
+        <v>13151.99877815341</v>
       </c>
       <c r="K7">
-        <v>13753.54643874358</v>
+        <v>13749.30433751086</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -857,31 +857,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3126.376130836121</v>
+        <v>2720.926674952338</v>
       </c>
       <c r="D8">
-        <v>5264.06209976893</v>
+        <v>4778.002354012133</v>
       </c>
       <c r="E8">
-        <v>7231.83712342619</v>
+        <v>6803.425298254624</v>
       </c>
       <c r="F8">
-        <v>9024.238955925526</v>
+        <v>8714.643016766451</v>
       </c>
       <c r="G8">
-        <v>10725.48987116632</v>
+        <v>10494.67240549575</v>
       </c>
       <c r="H8">
-        <v>12272.96151764467</v>
+        <v>12112.47516145113</v>
       </c>
       <c r="I8">
-        <v>13619.64170142197</v>
+        <v>13516.98878617444</v>
       </c>
       <c r="J8">
-        <v>14742.28650823048</v>
+        <v>14683.2076005116</v>
       </c>
       <c r="K8">
-        <v>15640.8211286749</v>
+        <v>15611.86242358725</v>
       </c>
     </row>
   </sheetData>
